--- a/DatasetS2_matdata.xlsx
+++ b/DatasetS2_matdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/eltr1022_colorado_edu/Documents/LAC projects/LAC23 water chemistry story/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{5046B9CE-32BE-4898-8C53-491508AE46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A95F16-1D8D-4C8F-B70E-B0A1C96E9108}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{C0AB0D78-F915-4119-8E9F-F1674D3988E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACC78D5D-C942-4E05-85C7-7C947E94DD11}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="140" windowWidth="19380" windowHeight="11230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Measured; uncertainty</t>
+Measured; uncertainty +/- 0.016 mequiv/kg</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Measured; uncertainty</t>
+Measured; uncertainty +/- 0.01</t>
         </r>
       </text>
     </comment>
@@ -382,10 +382,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -428,6 +429,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -462,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -488,6 +495,12 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -823,7 +836,7 @@
     <col min="15" max="15" width="10.08984375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.5">
+    <row r="1" spans="1:15" ht="43.5">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -875,19 +888,19 @@
         <v>45135.568749999999</v>
       </c>
       <c r="B2" s="7">
-        <v>1.1102963144911162</v>
+        <v>1.0762077732734565</v>
       </c>
       <c r="C2" s="7">
-        <v>2.1815588212664472</v>
+        <v>2.1358040157642417</v>
       </c>
       <c r="D2" s="7">
         <v>9.14</v>
       </c>
       <c r="E2" s="9">
-        <v>8.0022739173270487</v>
+        <v>7.4964122540066578</v>
       </c>
       <c r="F2" s="8">
-        <v>10.556676412402059</v>
+        <v>10.313947205610226</v>
       </c>
       <c r="G2" s="10">
         <v>-6.7685669778424797</v>
@@ -923,19 +936,19 @@
         <v>45135.607638888891</v>
       </c>
       <c r="B3" s="7">
-        <v>1.5502431073650884</v>
+        <v>1.5125015802446864</v>
       </c>
       <c r="C3" s="7">
-        <v>2.652498602140172</v>
+        <v>2.6071587993704308</v>
       </c>
       <c r="D3" s="7">
         <v>8.9499999999999993</v>
       </c>
       <c r="E3" s="9">
-        <v>21.967025565016733</v>
+        <v>20.759055831674509</v>
       </c>
       <c r="F3" s="8">
-        <v>12.080503955334079</v>
+        <v>11.906360804565367</v>
       </c>
       <c r="G3" s="10">
         <v>-5.0440844107665397</v>
@@ -971,19 +984,19 @@
         <v>45135.65</v>
       </c>
       <c r="B4" s="7">
-        <v>2.0767672584881893</v>
+        <v>2.028726242387199</v>
       </c>
       <c r="C4" s="7">
-        <v>2.5006056321432784</v>
+        <v>2.4532647867807662</v>
       </c>
       <c r="D4" s="7">
         <v>8.1999999999999993</v>
       </c>
       <c r="E4" s="9">
-        <v>276.70113865466379</v>
+        <v>263.68365056142187</v>
       </c>
       <c r="F4" s="8">
-        <v>4.8119902945637616</v>
+        <v>4.782496322630819</v>
       </c>
       <c r="G4" s="7">
         <v>1.03736652755431</v>
@@ -1019,19 +1032,19 @@
         <v>45135.693055555559</v>
       </c>
       <c r="B5" s="7">
-        <v>2.0049059245378276</v>
+        <v>1.9593851580443629</v>
       </c>
       <c r="C5" s="7">
-        <v>2.4267337306908585</v>
+        <v>2.3820514396727162</v>
       </c>
       <c r="D5" s="7">
         <v>8.2100000000000009</v>
       </c>
       <c r="E5" s="9">
-        <v>260.18336642160978</v>
+        <v>248.03624497750891</v>
       </c>
       <c r="F5" s="8">
-        <v>4.7379811110991188</v>
+        <v>4.7107123968129283</v>
       </c>
       <c r="G5" s="7">
         <v>1.20821596601648</v>
@@ -1067,19 +1080,19 @@
         <v>45135.734722222223</v>
       </c>
       <c r="B6" s="7">
-        <v>2.0401107036615347</v>
+        <v>1.9936154323897193</v>
       </c>
       <c r="C6" s="7">
-        <v>2.4266060681925423</v>
+        <v>2.3810719988916915</v>
       </c>
       <c r="D6" s="7">
         <v>8.16</v>
       </c>
       <c r="E6" s="9">
-        <v>301.80976448026433</v>
+        <v>287.78026047252564</v>
       </c>
       <c r="F6" s="8">
-        <v>4.3656315848050191</v>
+        <v>4.3414264061460681</v>
       </c>
       <c r="G6" s="7">
         <v>1.1088528988714601</v>
@@ -1115,19 +1128,19 @@
         <v>45135.779166666667</v>
       </c>
       <c r="B7" s="7">
-        <v>1.9520351922348798</v>
+        <v>1.9068663893643123</v>
       </c>
       <c r="C7" s="7">
-        <v>2.425729057760337</v>
+        <v>2.3810078621341964</v>
       </c>
       <c r="D7" s="7">
         <v>8.2799999999999994</v>
       </c>
       <c r="E7" s="9">
-        <v>210.25027834189919</v>
+        <v>200.253366562205</v>
       </c>
       <c r="F7" s="8">
-        <v>5.2850655214555751</v>
+        <v>5.2499028653887487</v>
       </c>
       <c r="G7" s="7">
         <v>1.07199190347593</v>
@@ -1163,19 +1176,19 @@
         <v>45135.813888888886</v>
       </c>
       <c r="B8" s="7">
-        <v>1.9968765412959868</v>
+        <v>1.9510522958827361</v>
       </c>
       <c r="C8" s="7">
-        <v>2.4602034601677247</v>
+        <v>2.4149439128647416</v>
       </c>
       <c r="D8" s="7">
         <v>8.26</v>
       </c>
       <c r="E8" s="9">
-        <v>226.92663743265666</v>
+        <v>216.20850130570281</v>
       </c>
       <c r="F8" s="8">
-        <v>5.2023464935696211</v>
+        <v>5.1694484456290564</v>
       </c>
       <c r="G8" s="7">
         <v>0.75897751364204602</v>
@@ -1211,19 +1224,19 @@
         <v>45135.85833333333</v>
       </c>
       <c r="B9" s="7">
-        <v>2.0625153389607473</v>
+        <v>2.0182068790783165</v>
       </c>
       <c r="C9" s="7">
-        <v>2.5274312082116963</v>
+        <v>2.4841636981144601</v>
       </c>
       <c r="D9" s="7">
         <v>8.25</v>
       </c>
       <c r="E9" s="9">
-        <v>240.7271124606859</v>
+        <v>229.71637507665773</v>
       </c>
       <c r="F9" s="8">
-        <v>5.270342057938727</v>
+        <v>5.2452162332301677</v>
       </c>
       <c r="G9" s="7">
         <v>0.129604754880733</v>
@@ -1253,6 +1266,30 @@
         <f t="shared" si="0"/>
         <v>4.2657951880159271</v>
       </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
